--- a/Excel-XLSX/UN-PAN.xlsx
+++ b/Excel-XLSX/UN-PAN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="1056">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>C6nU8b</t>
+    <t>sTWE5y</t>
   </si>
   <si>
     <t>1972</t>
@@ -3090,13 +3090,16 @@
     <t>741</t>
   </si>
   <si>
+    <t>1622</t>
+  </si>
+  <si>
     <t>742</t>
   </si>
   <si>
     <t>743</t>
   </si>
   <si>
-    <t>1583</t>
+    <t>1172</t>
   </si>
   <si>
     <t>744</t>
@@ -3123,13 +3126,16 @@
     <t>751</t>
   </si>
   <si>
+    <t>4940</t>
+  </si>
+  <si>
     <t>752</t>
   </si>
   <si>
     <t>753</t>
   </si>
   <si>
-    <t>3681</t>
+    <t>2236</t>
   </si>
   <si>
     <t>754</t>
@@ -3138,7 +3144,10 @@
     <t>755</t>
   </si>
   <si>
-    <t>6000</t>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>POL</t>
   </si>
   <si>
     <t>756</t>
@@ -3153,28 +3162,28 @@
     <t>759</t>
   </si>
   <si>
+    <t>928</t>
+  </si>
+  <si>
     <t>760</t>
   </si>
   <si>
-    <t>928</t>
-  </si>
-  <si>
     <t>761</t>
   </si>
   <si>
+    <t>68874</t>
+  </si>
+  <si>
     <t>762</t>
   </si>
   <si>
-    <t>37776</t>
-  </si>
-  <si>
     <t>763</t>
   </si>
   <si>
-    <t>764</t>
-  </si>
-  <si>
-    <t>57549</t>
+    <t>965</t>
+  </si>
+  <si>
+    <t>56921</t>
   </si>
 </sst>
 </file>
@@ -3559,7 +3568,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V765"/>
+  <dimension ref="A1:V764"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -53768,16 +53777,16 @@
         <v>1019</v>
       </c>
       <c r="F739" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G739" s="1" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="H739" s="1" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="I739" s="1" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="J739" s="2" t="s">
         <v>29</v>
@@ -53792,10 +53801,10 @@
         <v>31</v>
       </c>
       <c r="N739" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O739" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="P739" s="2" t="s">
         <v>33</v>
@@ -53836,16 +53845,16 @@
         <v>1019</v>
       </c>
       <c r="F740" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="G740" s="1" t="s">
-        <v>426</v>
+        <v>191</v>
       </c>
       <c r="H740" s="1" t="s">
-        <v>427</v>
+        <v>192</v>
       </c>
       <c r="I740" s="1" t="s">
-        <v>427</v>
+        <v>192</v>
       </c>
       <c r="J740" s="2" t="s">
         <v>29</v>
@@ -53860,7 +53869,7 @@
         <v>31</v>
       </c>
       <c r="N740" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O740" s="2" t="s">
         <v>33</v>
@@ -53904,16 +53913,16 @@
         <v>1019</v>
       </c>
       <c r="F741" s="2" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="G741" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H741" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="I741" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="J741" s="2" t="s">
         <v>29</v>
@@ -53972,16 +53981,16 @@
         <v>1019</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G742" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H742" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I742" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J742" s="2" t="s">
         <v>29</v>
@@ -53996,10 +54005,10 @@
         <v>31</v>
       </c>
       <c r="N742" s="2" t="s">
-        <v>52</v>
+        <v>1024</v>
       </c>
       <c r="O742" s="2" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="P742" s="2" t="s">
         <v>33</v>
@@ -54034,22 +54043,22 @@
         <v>22</v>
       </c>
       <c r="D743" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E743" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F743" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G743" s="1" t="s">
-        <v>433</v>
+        <v>758</v>
       </c>
       <c r="H743" s="1" t="s">
-        <v>434</v>
+        <v>759</v>
       </c>
       <c r="I743" s="1" t="s">
-        <v>434</v>
+        <v>760</v>
       </c>
       <c r="J743" s="2" t="s">
         <v>29</v>
@@ -54064,10 +54073,10 @@
         <v>31</v>
       </c>
       <c r="N743" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O743" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="O743" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P743" s="2" t="s">
         <v>33</v>
@@ -54102,22 +54111,22 @@
         <v>22</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E744" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F744" s="2" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="G744" s="1" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="H744" s="1" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="I744" s="1" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="J744" s="2" t="s">
         <v>29</v>
@@ -54132,10 +54141,10 @@
         <v>31</v>
       </c>
       <c r="N744" s="2" t="s">
-        <v>1026</v>
+        <v>126</v>
       </c>
       <c r="O744" s="2" t="s">
-        <v>628</v>
+        <v>1027</v>
       </c>
       <c r="P744" s="2" t="s">
         <v>33</v>
@@ -54170,22 +54179,22 @@
         <v>22</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E745" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F745" s="2" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="G745" s="1" t="s">
-        <v>758</v>
+        <v>49</v>
       </c>
       <c r="H745" s="1" t="s">
-        <v>759</v>
+        <v>50</v>
       </c>
       <c r="I745" s="1" t="s">
-        <v>760</v>
+        <v>50</v>
       </c>
       <c r="J745" s="2" t="s">
         <v>29</v>
@@ -54200,7 +54209,7 @@
         <v>31</v>
       </c>
       <c r="N745" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="O745" s="2" t="s">
         <v>46</v>
@@ -54238,22 +54247,22 @@
         <v>22</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E746" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F746" s="2" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="G746" s="1" t="s">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="H746" s="1" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="I746" s="1" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="J746" s="2" t="s">
         <v>29</v>
@@ -54268,10 +54277,10 @@
         <v>31</v>
       </c>
       <c r="N746" s="2" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="O746" s="2" t="s">
-        <v>692</v>
+        <v>98</v>
       </c>
       <c r="P746" s="2" t="s">
         <v>33</v>
@@ -54306,22 +54315,22 @@
         <v>22</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E747" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F747" s="2" t="s">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="G747" s="1" t="s">
-        <v>49</v>
+        <v>411</v>
       </c>
       <c r="H747" s="1" t="s">
-        <v>50</v>
+        <v>412</v>
       </c>
       <c r="I747" s="1" t="s">
-        <v>50</v>
+        <v>413</v>
       </c>
       <c r="J747" s="2" t="s">
         <v>29</v>
@@ -54336,10 +54345,10 @@
         <v>31</v>
       </c>
       <c r="N747" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="O747" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="P747" s="2" t="s">
         <v>33</v>
@@ -54374,22 +54383,22 @@
         <v>22</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E748" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F748" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G748" s="1" t="s">
-        <v>248</v>
+        <v>164</v>
       </c>
       <c r="H748" s="1" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="I748" s="1" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="J748" s="2" t="s">
         <v>29</v>
@@ -54404,10 +54413,10 @@
         <v>31</v>
       </c>
       <c r="N748" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="O748" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="P748" s="2" t="s">
         <v>33</v>
@@ -54442,22 +54451,22 @@
         <v>22</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E749" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F749" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G749" s="1" t="s">
-        <v>411</v>
+        <v>632</v>
       </c>
       <c r="H749" s="1" t="s">
-        <v>412</v>
+        <v>633</v>
       </c>
       <c r="I749" s="1" t="s">
-        <v>413</v>
+        <v>634</v>
       </c>
       <c r="J749" s="2" t="s">
         <v>29</v>
@@ -54475,7 +54484,7 @@
         <v>64</v>
       </c>
       <c r="O749" s="2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="P749" s="2" t="s">
         <v>33</v>
@@ -54510,22 +54519,22 @@
         <v>22</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E750" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F750" s="2" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G750" s="1" t="s">
-        <v>164</v>
+        <v>639</v>
       </c>
       <c r="H750" s="1" t="s">
-        <v>165</v>
+        <v>640</v>
       </c>
       <c r="I750" s="1" t="s">
-        <v>166</v>
+        <v>640</v>
       </c>
       <c r="J750" s="2" t="s">
         <v>29</v>
@@ -54540,10 +54549,10 @@
         <v>31</v>
       </c>
       <c r="N750" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="O750" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="P750" s="2" t="s">
         <v>33</v>
@@ -54578,22 +54587,22 @@
         <v>22</v>
       </c>
       <c r="D751" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E751" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F751" s="2" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="G751" s="1" t="s">
-        <v>632</v>
+        <v>549</v>
       </c>
       <c r="H751" s="1" t="s">
-        <v>633</v>
+        <v>550</v>
       </c>
       <c r="I751" s="1" t="s">
-        <v>634</v>
+        <v>550</v>
       </c>
       <c r="J751" s="2" t="s">
         <v>29</v>
@@ -54608,10 +54617,10 @@
         <v>31</v>
       </c>
       <c r="N751" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="O751" s="2" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="P751" s="2" t="s">
         <v>33</v>
@@ -54646,22 +54655,22 @@
         <v>22</v>
       </c>
       <c r="D752" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="E752" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F752" s="2" t="s">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="G752" s="1" t="s">
-        <v>639</v>
+        <v>54</v>
       </c>
       <c r="H752" s="1" t="s">
-        <v>640</v>
+        <v>55</v>
       </c>
       <c r="I752" s="1" t="s">
-        <v>640</v>
+        <v>55</v>
       </c>
       <c r="J752" s="2" t="s">
         <v>29</v>
@@ -54676,10 +54685,10 @@
         <v>31</v>
       </c>
       <c r="N752" s="2" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="O752" s="2" t="s">
-        <v>56</v>
+        <v>1036</v>
       </c>
       <c r="P752" s="2" t="s">
         <v>33</v>
@@ -54714,22 +54723,22 @@
         <v>22</v>
       </c>
       <c r="D753" s="2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E753" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F753" s="2" t="s">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="G753" s="1" t="s">
-        <v>549</v>
+        <v>179</v>
       </c>
       <c r="H753" s="1" t="s">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="I753" s="1" t="s">
-        <v>550</v>
+        <v>181</v>
       </c>
       <c r="J753" s="2" t="s">
         <v>29</v>
@@ -54747,7 +54756,7 @@
         <v>46</v>
       </c>
       <c r="O753" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="P753" s="2" t="s">
         <v>33</v>
@@ -54782,22 +54791,22 @@
         <v>22</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E754" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F754" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="G754" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H754" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I754" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="J754" s="2" t="s">
         <v>29</v>
@@ -54812,10 +54821,10 @@
         <v>31</v>
       </c>
       <c r="N754" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O754" s="2" t="s">
-        <v>1037</v>
+        <v>33</v>
       </c>
       <c r="P754" s="2" t="s">
         <v>33</v>
@@ -54836,7 +54845,7 @@
         <v>34</v>
       </c>
       <c r="V754" s="2" t="s">
-        <v>33</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="755">
@@ -54850,22 +54859,22 @@
         <v>22</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E755" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="G755" s="1" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="H755" s="1" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="I755" s="1" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="J755" s="2" t="s">
         <v>29</v>
@@ -54880,10 +54889,10 @@
         <v>31</v>
       </c>
       <c r="N755" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O755" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="O755" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P755" s="2" t="s">
         <v>33</v>
@@ -54918,22 +54927,22 @@
         <v>22</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E756" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F756" s="2" t="s">
-        <v>29</v>
+        <v>319</v>
       </c>
       <c r="G756" s="1" t="s">
-        <v>30</v>
+        <v>1042</v>
       </c>
       <c r="H756" s="1" t="s">
-        <v>31</v>
+        <v>1043</v>
       </c>
       <c r="I756" s="1" t="s">
-        <v>31</v>
+        <v>1043</v>
       </c>
       <c r="J756" s="2" t="s">
         <v>29</v>
@@ -54951,7 +54960,7 @@
         <v>33</v>
       </c>
       <c r="O756" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="P756" s="2" t="s">
         <v>33</v>
@@ -54972,7 +54981,7 @@
         <v>34</v>
       </c>
       <c r="V756" s="2" t="s">
-        <v>1040</v>
+        <v>33</v>
       </c>
     </row>
     <row r="757">
@@ -54986,22 +54995,22 @@
         <v>22</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E757" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F757" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="G757" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H757" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="I757" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="J757" s="2" t="s">
         <v>29</v>
@@ -55019,7 +55028,7 @@
         <v>33</v>
       </c>
       <c r="O757" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P757" s="2" t="s">
         <v>33</v>
@@ -55054,22 +55063,22 @@
         <v>22</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="E758" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F758" s="2" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="G758" s="1" t="s">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="H758" s="1" t="s">
-        <v>215</v>
+        <v>68</v>
       </c>
       <c r="I758" s="1" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="J758" s="2" t="s">
         <v>29</v>
@@ -55084,10 +55093,10 @@
         <v>31</v>
       </c>
       <c r="N758" s="2" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="O758" s="2" t="s">
-        <v>46</v>
+        <v>343</v>
       </c>
       <c r="P758" s="2" t="s">
         <v>33</v>
@@ -55122,22 +55131,22 @@
         <v>22</v>
       </c>
       <c r="D759" s="2" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="E759" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F759" s="2" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="G759" s="1" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="H759" s="1" t="s">
-        <v>68</v>
+        <v>301</v>
       </c>
       <c r="I759" s="1" t="s">
-        <v>69</v>
+        <v>301</v>
       </c>
       <c r="J759" s="2" t="s">
         <v>29</v>
@@ -55152,10 +55161,10 @@
         <v>31</v>
       </c>
       <c r="N759" s="2" t="s">
-        <v>689</v>
+        <v>46</v>
       </c>
       <c r="O759" s="2" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="P759" s="2" t="s">
         <v>33</v>
@@ -55190,22 +55199,22 @@
         <v>22</v>
       </c>
       <c r="D760" s="2" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="E760" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F760" s="2" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
       <c r="G760" s="1" t="s">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="H760" s="1" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
       <c r="I760" s="1" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="J760" s="2" t="s">
         <v>29</v>
@@ -55220,7 +55229,7 @@
         <v>31</v>
       </c>
       <c r="N760" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O760" s="2" t="s">
         <v>33</v>
@@ -55235,7 +55244,7 @@
         <v>33</v>
       </c>
       <c r="S760" s="2" t="s">
-        <v>33</v>
+        <v>1048</v>
       </c>
       <c r="T760" s="2" t="s">
         <v>33</v>
@@ -55258,22 +55267,22 @@
         <v>22</v>
       </c>
       <c r="D761" s="2" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="E761" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F761" s="2" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G761" s="1" t="s">
-        <v>378</v>
+        <v>740</v>
       </c>
       <c r="H761" s="1" t="s">
-        <v>379</v>
+        <v>741</v>
       </c>
       <c r="I761" s="1" t="s">
-        <v>380</v>
+        <v>741</v>
       </c>
       <c r="J761" s="2" t="s">
         <v>29</v>
@@ -55288,7 +55297,7 @@
         <v>31</v>
       </c>
       <c r="N761" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="O761" s="2" t="s">
         <v>33</v>
@@ -55303,7 +55312,7 @@
         <v>33</v>
       </c>
       <c r="S761" s="2" t="s">
-        <v>1046</v>
+        <v>33</v>
       </c>
       <c r="T761" s="2" t="s">
         <v>33</v>
@@ -55326,22 +55335,22 @@
         <v>22</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="E762" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F762" s="2" t="s">
-        <v>352</v>
+        <v>25</v>
       </c>
       <c r="G762" s="1" t="s">
-        <v>740</v>
+        <v>26</v>
       </c>
       <c r="H762" s="1" t="s">
-        <v>741</v>
+        <v>27</v>
       </c>
       <c r="I762" s="1" t="s">
-        <v>741</v>
+        <v>28</v>
       </c>
       <c r="J762" s="2" t="s">
         <v>29</v>
@@ -55356,7 +55365,7 @@
         <v>31</v>
       </c>
       <c r="N762" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O762" s="2" t="s">
         <v>33</v>
@@ -55374,7 +55383,7 @@
         <v>33</v>
       </c>
       <c r="T762" s="2" t="s">
-        <v>33</v>
+        <v>1051</v>
       </c>
       <c r="U762" s="1" t="s">
         <v>34</v>
@@ -55394,22 +55403,22 @@
         <v>22</v>
       </c>
       <c r="D763" s="2" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="E763" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F763" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G763" s="1" t="s">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="H763" s="1" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="I763" s="1" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="J763" s="2" t="s">
         <v>29</v>
@@ -55424,10 +55433,10 @@
         <v>31</v>
       </c>
       <c r="N763" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="O763" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="P763" s="2" t="s">
         <v>33</v>
@@ -55442,7 +55451,7 @@
         <v>33</v>
       </c>
       <c r="T763" s="2" t="s">
-        <v>1049</v>
+        <v>33</v>
       </c>
       <c r="U763" s="1" t="s">
         <v>34</v>
@@ -55462,22 +55471,22 @@
         <v>22</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="E764" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="F764" s="2" t="s">
-        <v>57</v>
+        <v>381</v>
       </c>
       <c r="G764" s="1" t="s">
-        <v>224</v>
+        <v>446</v>
       </c>
       <c r="H764" s="1" t="s">
-        <v>225</v>
+        <v>447</v>
       </c>
       <c r="I764" s="1" t="s">
-        <v>225</v>
+        <v>447</v>
       </c>
       <c r="J764" s="2" t="s">
         <v>29</v>
@@ -55492,10 +55501,10 @@
         <v>31</v>
       </c>
       <c r="N764" s="2" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="O764" s="2" t="s">
-        <v>46</v>
+        <v>1054</v>
       </c>
       <c r="P764" s="2" t="s">
         <v>33</v>
@@ -55512,78 +55521,10 @@
       <c r="T764" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U764" s="1" t="s">
-        <v>34</v>
+      <c r="U764" s="2" t="s">
+        <v>1055</v>
       </c>
       <c r="V764" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B765" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C765" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D765" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E765" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F765" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="G765" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H765" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I765" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J765" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K765" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L765" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M765" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N765" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="O765" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="P765" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q765" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R765" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S765" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T765" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U765" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="V765" s="2" t="s">
         <v>33</v>
       </c>
     </row>
